--- a/overall/data/Data Extraction 2.xlsx
+++ b/overall/data/Data Extraction 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\overall\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26993774-5E53-4F60-AC46-2249DDACDD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F4E572-FFAA-4C43-9523-08C0CEB8E134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{EC9DA6B0-2C5C-4786-A3C0-5C7513901B13}"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="9750" windowHeight="10155" xr2:uid="{EC9DA6B0-2C5C-4786-A3C0-5C7513901B13}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 2" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="100">
   <si>
     <t>Large Aircraft (triangle)</t>
   </si>
@@ -6805,8 +6805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BCD886-4D4F-4FF8-9F67-E6749D5D0659}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6875,7 +6875,9 @@
       <c r="B3" s="1">
         <v>3.0371999999999999</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
       <c r="D3" s="1">
         <v>1959</v>
       </c>
@@ -7800,7 +7802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BFC5A7-8146-4110-9E23-BBDC2726761B}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -9703,7 +9705,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
